--- a/Android/ExcelData/EditorTable.xlsx
+++ b/Android/ExcelData/EditorTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E850D06-7FFD-470B-9416-20513961D491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D86D760-3BAE-4D18-AD57-519F096F2FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="8715" yWindow="1260" windowWidth="27975" windowHeight="19770" activeTab="2" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,14 @@
   </si>
   <si>
     <t>Editor_Wave_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_2:int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -689,7 +697,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -739,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -777,10 +785,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
